--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.64176871361521</v>
+        <v>4.662869</v>
       </c>
       <c r="H2">
-        <v>4.64176871361521</v>
+        <v>9.325737999999999</v>
       </c>
       <c r="I2">
-        <v>0.1293018877860706</v>
+        <v>0.12780197298571</v>
       </c>
       <c r="J2">
-        <v>0.1293018877860706</v>
+        <v>0.0920600161298102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.14091293126286</v>
+        <v>4.1422325</v>
       </c>
       <c r="N2">
-        <v>4.14091293126286</v>
+        <v>8.284465000000001</v>
       </c>
       <c r="O2">
-        <v>0.05373492022755447</v>
+        <v>0.05151993114278786</v>
       </c>
       <c r="P2">
-        <v>0.05373492022755447</v>
+        <v>0.04062623503332275</v>
       </c>
       <c r="Q2">
-        <v>19.2211600901406</v>
+        <v>19.3146875150425</v>
       </c>
       <c r="R2">
-        <v>19.2211600901406</v>
+        <v>77.25875006017</v>
       </c>
       <c r="S2">
-        <v>0.006948026625456703</v>
+        <v>0.006584348848136215</v>
       </c>
       <c r="T2">
-        <v>0.006948026625456703</v>
+        <v>0.003740051852461153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.64176871361521</v>
+        <v>4.662869</v>
       </c>
       <c r="H3">
-        <v>4.64176871361521</v>
+        <v>9.325737999999999</v>
       </c>
       <c r="I3">
-        <v>0.1293018877860706</v>
+        <v>0.12780197298571</v>
       </c>
       <c r="J3">
-        <v>0.1293018877860706</v>
+        <v>0.0920600161298102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.5657075657512</v>
+        <v>14.465481</v>
       </c>
       <c r="N3">
-        <v>13.5657075657512</v>
+        <v>43.396443</v>
       </c>
       <c r="O3">
-        <v>0.1760365953054857</v>
+        <v>0.1799176132839733</v>
       </c>
       <c r="P3">
-        <v>0.1760365953054857</v>
+        <v>0.2128120636550693</v>
       </c>
       <c r="Q3">
-        <v>62.96887695675708</v>
+        <v>67.45064292498898</v>
       </c>
       <c r="R3">
-        <v>62.96887695675708</v>
+        <v>404.703857549934</v>
       </c>
       <c r="S3">
-        <v>0.02276186409243184</v>
+        <v>0.02299382595257178</v>
       </c>
       <c r="T3">
-        <v>0.02276186409243184</v>
+        <v>0.01959148201270387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.64176871361521</v>
+        <v>4.662869</v>
       </c>
       <c r="H4">
-        <v>4.64176871361521</v>
+        <v>9.325737999999999</v>
       </c>
       <c r="I4">
-        <v>0.1293018877860706</v>
+        <v>0.12780197298571</v>
       </c>
       <c r="J4">
-        <v>0.1293018877860706</v>
+        <v>0.0920600161298102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.739099909675531</v>
+        <v>9.819040666666666</v>
       </c>
       <c r="N4">
-        <v>8.739099909675531</v>
+        <v>29.457122</v>
       </c>
       <c r="O4">
-        <v>0.1134036972769263</v>
+        <v>0.1221264859070321</v>
       </c>
       <c r="P4">
-        <v>0.1134036972769263</v>
+        <v>0.144454948120037</v>
       </c>
       <c r="Q4">
-        <v>40.56488054588939</v>
+        <v>45.78490033433933</v>
       </c>
       <c r="R4">
-        <v>40.56488054588939</v>
+        <v>274.709402006036</v>
       </c>
       <c r="S4">
-        <v>0.01466331213982665</v>
+        <v>0.01560800585273022</v>
       </c>
       <c r="T4">
-        <v>0.01466331213982665</v>
+        <v>0.0132985248539615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.64176871361521</v>
+        <v>4.662869</v>
       </c>
       <c r="H5">
-        <v>4.64176871361521</v>
+        <v>9.325737999999999</v>
       </c>
       <c r="I5">
-        <v>0.1293018877860706</v>
+        <v>0.12780197298571</v>
       </c>
       <c r="J5">
-        <v>0.1293018877860706</v>
+        <v>0.0920600161298102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.9909171972197</v>
+        <v>11.46270966666667</v>
       </c>
       <c r="N5">
-        <v>10.9909171972197</v>
+        <v>34.388129</v>
       </c>
       <c r="O5">
-        <v>0.1426246020198599</v>
+        <v>0.1425699819448656</v>
       </c>
       <c r="P5">
-        <v>0.1426246020198599</v>
+        <v>0.1686361413935869</v>
       </c>
       <c r="Q5">
-        <v>51.01729557998978</v>
+        <v>53.44911356070033</v>
       </c>
       <c r="R5">
-        <v>51.01729557998978</v>
+        <v>320.694681364202</v>
       </c>
       <c r="S5">
-        <v>0.01844163028590491</v>
+        <v>0.01822072498109088</v>
       </c>
       <c r="T5">
-        <v>0.01844163028590491</v>
+        <v>0.01552464589676256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.64176871361521</v>
+        <v>4.662869</v>
       </c>
       <c r="H6">
-        <v>4.64176871361521</v>
+        <v>9.325737999999999</v>
       </c>
       <c r="I6">
-        <v>0.1293018877860706</v>
+        <v>0.12780197298571</v>
       </c>
       <c r="J6">
-        <v>0.1293018877860706</v>
+        <v>0.0920600161298102</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.66984565753858</v>
+        <v>7.370695666666666</v>
       </c>
       <c r="N6">
-        <v>6.66984565753858</v>
+        <v>22.112087</v>
       </c>
       <c r="O6">
-        <v>0.08655183779211539</v>
+        <v>0.09167465448187939</v>
       </c>
       <c r="P6">
-        <v>0.08655183779211539</v>
+        <v>0.108435589206941</v>
       </c>
       <c r="Q6">
-        <v>30.95988089780485</v>
+        <v>34.36858833253433</v>
       </c>
       <c r="R6">
-        <v>30.95988089780485</v>
+        <v>206.211529995206</v>
       </c>
       <c r="S6">
-        <v>0.01119131601787429</v>
+        <v>0.01171620171556745</v>
       </c>
       <c r="T6">
-        <v>0.01119131601787429</v>
+        <v>0.009982582091436461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.64176871361521</v>
+        <v>4.662869</v>
       </c>
       <c r="H7">
-        <v>4.64176871361521</v>
+        <v>9.325737999999999</v>
       </c>
       <c r="I7">
-        <v>0.1293018877860706</v>
+        <v>0.12780197298571</v>
       </c>
       <c r="J7">
-        <v>0.1293018877860706</v>
+        <v>0.0920600161298102</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.9553773261754</v>
+        <v>33.1404235</v>
       </c>
       <c r="N7">
-        <v>32.9553773261754</v>
+        <v>66.28084699999999</v>
       </c>
       <c r="O7">
-        <v>0.4276483473780581</v>
+        <v>0.4121913332394617</v>
       </c>
       <c r="P7">
-        <v>0.4276483473780581</v>
+        <v>0.325035022591043</v>
       </c>
       <c r="Q7">
-        <v>152.9712394180251</v>
+        <v>154.5294533850215</v>
       </c>
       <c r="R7">
-        <v>152.9712394180251</v>
+        <v>618.1178135400859</v>
       </c>
       <c r="S7">
-        <v>0.05529573862457621</v>
+        <v>0.05267886563561348</v>
       </c>
       <c r="T7">
-        <v>0.05529573862457621</v>
+        <v>0.02992272942248464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.21089300525675</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H8">
-        <v>3.21089300525675</v>
+        <v>10.060577</v>
       </c>
       <c r="I8">
-        <v>0.08944317407306394</v>
+        <v>0.09191491261243208</v>
       </c>
       <c r="J8">
-        <v>0.08944317407306394</v>
+        <v>0.09931405760007386</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.14091293126286</v>
+        <v>4.1422325</v>
       </c>
       <c r="N8">
-        <v>4.14091293126286</v>
+        <v>8.284465000000001</v>
       </c>
       <c r="O8">
-        <v>0.05373492022755447</v>
+        <v>0.05151993114278786</v>
       </c>
       <c r="P8">
-        <v>0.05373492022755447</v>
+        <v>0.04062623503332275</v>
       </c>
       <c r="Q8">
-        <v>13.29602836636914</v>
+        <v>13.89108300605083</v>
       </c>
       <c r="R8">
-        <v>13.29602836636914</v>
+        <v>83.34649803630501</v>
       </c>
       <c r="S8">
-        <v>0.004806221823715359</v>
+        <v>0.004735449968787864</v>
       </c>
       <c r="T8">
-        <v>0.004806221823715359</v>
+        <v>0.004034756246173554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.21089300525675</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H9">
-        <v>3.21089300525675</v>
+        <v>10.060577</v>
       </c>
       <c r="I9">
-        <v>0.08944317407306394</v>
+        <v>0.09191491261243208</v>
       </c>
       <c r="J9">
-        <v>0.08944317407306394</v>
+        <v>0.09931405760007386</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.5657075657512</v>
+        <v>14.465481</v>
       </c>
       <c r="N9">
-        <v>13.5657075657512</v>
+        <v>43.396443</v>
       </c>
       <c r="O9">
-        <v>0.1760365953054857</v>
+        <v>0.1799176132839733</v>
       </c>
       <c r="P9">
-        <v>0.1760365953054857</v>
+        <v>0.2128120636550693</v>
       </c>
       <c r="Q9">
-        <v>43.55803553422911</v>
+        <v>48.51036181417899</v>
       </c>
       <c r="R9">
-        <v>43.55803553422911</v>
+        <v>436.593256327611</v>
       </c>
       <c r="S9">
-        <v>0.01574527183713807</v>
+        <v>0.01653711170243376</v>
       </c>
       <c r="T9">
-        <v>0.01574527183713807</v>
+        <v>0.02113522954783014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.21089300525675</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H10">
-        <v>3.21089300525675</v>
+        <v>10.060577</v>
       </c>
       <c r="I10">
-        <v>0.08944317407306394</v>
+        <v>0.09191491261243208</v>
       </c>
       <c r="J10">
-        <v>0.08944317407306394</v>
+        <v>0.09931405760007386</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.739099909675531</v>
+        <v>9.819040666666666</v>
       </c>
       <c r="N10">
-        <v>8.739099909675531</v>
+        <v>29.457122</v>
       </c>
       <c r="O10">
-        <v>0.1134036972769263</v>
+        <v>0.1221264859070321</v>
       </c>
       <c r="P10">
-        <v>0.1134036972769263</v>
+        <v>0.144454948120037</v>
       </c>
       <c r="Q10">
-        <v>28.06031477221706</v>
+        <v>32.92840489771044</v>
       </c>
       <c r="R10">
-        <v>28.06031477221706</v>
+        <v>296.355644079394</v>
       </c>
       <c r="S10">
-        <v>0.01014318663606917</v>
+        <v>0.01122524527980828</v>
       </c>
       <c r="T10">
-        <v>0.01014318663606917</v>
+        <v>0.01434640703820903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.21089300525675</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H11">
-        <v>3.21089300525675</v>
+        <v>10.060577</v>
       </c>
       <c r="I11">
-        <v>0.08944317407306394</v>
+        <v>0.09191491261243208</v>
       </c>
       <c r="J11">
-        <v>0.08944317407306394</v>
+        <v>0.09931405760007386</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9909171972197</v>
+        <v>11.46270966666667</v>
       </c>
       <c r="N11">
-        <v>10.9909171972197</v>
+        <v>34.388129</v>
       </c>
       <c r="O11">
-        <v>0.1426246020198599</v>
+        <v>0.1425699819448656</v>
       </c>
       <c r="P11">
-        <v>0.1426246020198599</v>
+        <v>0.1686361413935869</v>
       </c>
       <c r="Q11">
-        <v>35.29065914990886</v>
+        <v>38.44049107671478</v>
       </c>
       <c r="R11">
-        <v>35.29065914990886</v>
+        <v>345.964419690433</v>
       </c>
       <c r="S11">
-        <v>0.0127567971055638</v>
+        <v>0.01310430743161834</v>
       </c>
       <c r="T11">
-        <v>0.0127567971055638</v>
+        <v>0.01674793945981689</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.21089300525675</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H12">
-        <v>3.21089300525675</v>
+        <v>10.060577</v>
       </c>
       <c r="I12">
-        <v>0.08944317407306394</v>
+        <v>0.09191491261243208</v>
       </c>
       <c r="J12">
-        <v>0.08944317407306394</v>
+        <v>0.09931405760007386</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.66984565753858</v>
+        <v>7.370695666666666</v>
       </c>
       <c r="N12">
-        <v>6.66984565753858</v>
+        <v>22.112087</v>
       </c>
       <c r="O12">
-        <v>0.08655183779211539</v>
+        <v>0.09167465448187939</v>
       </c>
       <c r="P12">
-        <v>0.08655183779211539</v>
+        <v>0.108435589206941</v>
       </c>
       <c r="Q12">
-        <v>21.41616076793273</v>
+        <v>24.71781709935544</v>
       </c>
       <c r="R12">
-        <v>21.41616076793273</v>
+        <v>222.460353894199</v>
       </c>
       <c r="S12">
-        <v>0.007741471093983772</v>
+        <v>0.008426267855476849</v>
       </c>
       <c r="T12">
-        <v>0.007741471093983772</v>
+        <v>0.01076917835239609</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.21089300525675</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H13">
-        <v>3.21089300525675</v>
+        <v>10.060577</v>
       </c>
       <c r="I13">
-        <v>0.08944317407306394</v>
+        <v>0.09191491261243208</v>
       </c>
       <c r="J13">
-        <v>0.08944317407306394</v>
+        <v>0.09931405760007386</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.9553773261754</v>
+        <v>33.1404235</v>
       </c>
       <c r="N13">
-        <v>32.9553773261754</v>
+        <v>66.28084699999999</v>
       </c>
       <c r="O13">
-        <v>0.4276483473780581</v>
+        <v>0.4121913332394617</v>
       </c>
       <c r="P13">
-        <v>0.4276483473780581</v>
+        <v>0.325035022591043</v>
       </c>
       <c r="Q13">
-        <v>105.8161905422135</v>
+        <v>111.1372608114532</v>
       </c>
       <c r="R13">
-        <v>105.8161905422135</v>
+        <v>666.823564868719</v>
       </c>
       <c r="S13">
-        <v>0.03825022557659377</v>
+        <v>0.03788653037430699</v>
       </c>
       <c r="T13">
-        <v>0.03825022557659377</v>
+        <v>0.03228054695564815</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.7761123108893</v>
+        <v>13.115279</v>
       </c>
       <c r="H14">
-        <v>12.7761123108893</v>
+        <v>39.345837</v>
       </c>
       <c r="I14">
-        <v>0.3558935272925767</v>
+        <v>0.3594693594132818</v>
       </c>
       <c r="J14">
-        <v>0.3558935272925767</v>
+        <v>0.3884066214235145</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.14091293126286</v>
+        <v>4.1422325</v>
       </c>
       <c r="N14">
-        <v>4.14091293126286</v>
+        <v>8.284465000000001</v>
       </c>
       <c r="O14">
-        <v>0.05373492022755447</v>
+        <v>0.05151993114278786</v>
       </c>
       <c r="P14">
-        <v>0.05373492022755447</v>
+        <v>0.04062623503332275</v>
       </c>
       <c r="Q14">
-        <v>52.90476867942812</v>
+        <v>54.3265349203675</v>
       </c>
       <c r="R14">
-        <v>52.90476867942812</v>
+        <v>325.959209522205</v>
       </c>
       <c r="S14">
-        <v>0.01912391029856959</v>
+        <v>0.01851983664491434</v>
       </c>
       <c r="T14">
-        <v>0.01912391029856959</v>
+        <v>0.01577949869045051</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.7761123108893</v>
+        <v>13.115279</v>
       </c>
       <c r="H15">
-        <v>12.7761123108893</v>
+        <v>39.345837</v>
       </c>
       <c r="I15">
-        <v>0.3558935272925767</v>
+        <v>0.3594693594132818</v>
       </c>
       <c r="J15">
-        <v>0.3558935272925767</v>
+        <v>0.3884066214235145</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.5657075657512</v>
+        <v>14.465481</v>
       </c>
       <c r="N15">
-        <v>13.5657075657512</v>
+        <v>43.396443</v>
       </c>
       <c r="O15">
-        <v>0.1760365953054857</v>
+        <v>0.1799176132839733</v>
       </c>
       <c r="P15">
-        <v>0.1760365953054857</v>
+        <v>0.2128120636550693</v>
       </c>
       <c r="Q15">
-        <v>173.317003436718</v>
+        <v>189.718819184199</v>
       </c>
       <c r="R15">
-        <v>173.317003436718</v>
+        <v>1707.469372657791</v>
       </c>
       <c r="S15">
-        <v>0.06265028483584516</v>
+        <v>0.06467486919435644</v>
       </c>
       <c r="T15">
-        <v>0.06265028483584516</v>
+        <v>0.08265761464243136</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.7761123108893</v>
+        <v>13.115279</v>
       </c>
       <c r="H16">
-        <v>12.7761123108893</v>
+        <v>39.345837</v>
       </c>
       <c r="I16">
-        <v>0.3558935272925767</v>
+        <v>0.3594693594132818</v>
       </c>
       <c r="J16">
-        <v>0.3558935272925767</v>
+        <v>0.3884066214235145</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.739099909675531</v>
+        <v>9.819040666666666</v>
       </c>
       <c r="N16">
-        <v>8.739099909675531</v>
+        <v>29.457122</v>
       </c>
       <c r="O16">
-        <v>0.1134036972769263</v>
+        <v>0.1221264859070321</v>
       </c>
       <c r="P16">
-        <v>0.1134036972769263</v>
+        <v>0.144454948120037</v>
       </c>
       <c r="Q16">
-        <v>111.6517219420971</v>
+        <v>128.7794578556793</v>
       </c>
       <c r="R16">
-        <v>111.6517219420971</v>
+        <v>1159.015120701114</v>
       </c>
       <c r="S16">
-        <v>0.04035964183190489</v>
+        <v>0.04390072965639602</v>
       </c>
       <c r="T16">
-        <v>0.04035964183190489</v>
+        <v>0.05610725834721263</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.7761123108893</v>
+        <v>13.115279</v>
       </c>
       <c r="H17">
-        <v>12.7761123108893</v>
+        <v>39.345837</v>
       </c>
       <c r="I17">
-        <v>0.3558935272925767</v>
+        <v>0.3594693594132818</v>
       </c>
       <c r="J17">
-        <v>0.3558935272925767</v>
+        <v>0.3884066214235145</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.9909171972197</v>
+        <v>11.46270966666667</v>
       </c>
       <c r="N17">
-        <v>10.9909171972197</v>
+        <v>34.388129</v>
       </c>
       <c r="O17">
-        <v>0.1426246020198599</v>
+        <v>0.1425699819448656</v>
       </c>
       <c r="P17">
-        <v>0.1426246020198599</v>
+        <v>0.1686361413935869</v>
       </c>
       <c r="Q17">
-        <v>140.4211925113635</v>
+        <v>150.3366353743303</v>
       </c>
       <c r="R17">
-        <v>140.4211925113635</v>
+        <v>1353.029718368973</v>
       </c>
       <c r="S17">
-        <v>0.05075917269154791</v>
+        <v>0.05124954008128398</v>
       </c>
       <c r="T17">
-        <v>0.05075917269154791</v>
+        <v>0.06549939392858116</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.7761123108893</v>
+        <v>13.115279</v>
       </c>
       <c r="H18">
-        <v>12.7761123108893</v>
+        <v>39.345837</v>
       </c>
       <c r="I18">
-        <v>0.3558935272925767</v>
+        <v>0.3594693594132818</v>
       </c>
       <c r="J18">
-        <v>0.3558935272925767</v>
+        <v>0.3884066214235145</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.66984565753858</v>
+        <v>7.370695666666666</v>
       </c>
       <c r="N18">
-        <v>6.66984565753858</v>
+        <v>22.112087</v>
       </c>
       <c r="O18">
-        <v>0.08655183779211539</v>
+        <v>0.09167465448187939</v>
       </c>
       <c r="P18">
-        <v>0.08655183779211539</v>
+        <v>0.108435589206941</v>
       </c>
       <c r="Q18">
-        <v>85.21469721701018</v>
+        <v>96.66873009242433</v>
       </c>
       <c r="R18">
-        <v>85.21469721701018</v>
+        <v>870.0185708318189</v>
       </c>
       <c r="S18">
-        <v>0.03080323884549089</v>
+        <v>0.03295422932103512</v>
       </c>
       <c r="T18">
-        <v>0.03080323884549089</v>
+        <v>0.04211710084593606</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.7761123108893</v>
+        <v>13.115279</v>
       </c>
       <c r="H19">
-        <v>12.7761123108893</v>
+        <v>39.345837</v>
       </c>
       <c r="I19">
-        <v>0.3558935272925767</v>
+        <v>0.3594693594132818</v>
       </c>
       <c r="J19">
-        <v>0.3558935272925767</v>
+        <v>0.3884066214235145</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>32.9553773261754</v>
+        <v>33.1404235</v>
       </c>
       <c r="N19">
-        <v>32.9553773261754</v>
+        <v>66.28084699999999</v>
       </c>
       <c r="O19">
-        <v>0.4276483473780581</v>
+        <v>0.4121913332394617</v>
       </c>
       <c r="P19">
-        <v>0.4276483473780581</v>
+        <v>0.325035022591043</v>
       </c>
       <c r="Q19">
-        <v>421.0416019669516</v>
+        <v>434.6459003806564</v>
       </c>
       <c r="R19">
-        <v>421.0416019669516</v>
+        <v>2607.875402283938</v>
       </c>
       <c r="S19">
-        <v>0.1521972787892182</v>
+        <v>0.1481701545152959</v>
       </c>
       <c r="T19">
-        <v>0.1521972787892182</v>
+        <v>0.1262457549689027</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.78240345931708</v>
+        <v>7.825948666666666</v>
       </c>
       <c r="H20">
-        <v>7.78240345931708</v>
+        <v>23.477846</v>
       </c>
       <c r="I20">
-        <v>0.2167879359975286</v>
+        <v>0.2144970575164961</v>
       </c>
       <c r="J20">
-        <v>0.2167879359975286</v>
+        <v>0.2317640578636457</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.14091293126286</v>
+        <v>4.1422325</v>
       </c>
       <c r="N20">
-        <v>4.14091293126286</v>
+        <v>8.284465000000001</v>
       </c>
       <c r="O20">
-        <v>0.05373492022755447</v>
+        <v>0.05151993114278786</v>
       </c>
       <c r="P20">
-        <v>0.05373492022755447</v>
+        <v>0.04062623503332275</v>
       </c>
       <c r="Q20">
-        <v>32.22625512099091</v>
+        <v>32.41689891039834</v>
       </c>
       <c r="R20">
-        <v>32.22625512099091</v>
+        <v>194.50139346239</v>
       </c>
       <c r="S20">
-        <v>0.01164908244712338</v>
+        <v>0.01105087363358049</v>
       </c>
       <c r="T20">
-        <v>0.01164908244712338</v>
+        <v>0.009415701087045085</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.78240345931708</v>
+        <v>7.825948666666666</v>
       </c>
       <c r="H21">
-        <v>7.78240345931708</v>
+        <v>23.477846</v>
       </c>
       <c r="I21">
-        <v>0.2167879359975286</v>
+        <v>0.2144970575164961</v>
       </c>
       <c r="J21">
-        <v>0.2167879359975286</v>
+        <v>0.2317640578636457</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.5657075657512</v>
+        <v>14.465481</v>
       </c>
       <c r="N21">
-        <v>13.5657075657512</v>
+        <v>43.396443</v>
       </c>
       <c r="O21">
-        <v>0.1760365953054857</v>
+        <v>0.1799176132839733</v>
       </c>
       <c r="P21">
-        <v>0.1760365953054857</v>
+        <v>0.2128120636550693</v>
       </c>
       <c r="Q21">
-        <v>105.573809487786</v>
+        <v>113.206111744642</v>
       </c>
       <c r="R21">
-        <v>105.573809487786</v>
+        <v>1018.855005701778</v>
       </c>
       <c r="S21">
-        <v>0.03816261015630848</v>
+        <v>0.03859179864480312</v>
       </c>
       <c r="T21">
-        <v>0.03816261015630848</v>
+        <v>0.04932218743503534</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.78240345931708</v>
+        <v>7.825948666666666</v>
       </c>
       <c r="H22">
-        <v>7.78240345931708</v>
+        <v>23.477846</v>
       </c>
       <c r="I22">
-        <v>0.2167879359975286</v>
+        <v>0.2144970575164961</v>
       </c>
       <c r="J22">
-        <v>0.2167879359975286</v>
+        <v>0.2317640578636457</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.739099909675531</v>
+        <v>9.819040666666666</v>
       </c>
       <c r="N22">
-        <v>8.739099909675531</v>
+        <v>29.457122</v>
       </c>
       <c r="O22">
-        <v>0.1134036972769263</v>
+        <v>0.1221264859070321</v>
       </c>
       <c r="P22">
-        <v>0.1134036972769263</v>
+        <v>0.144454948120037</v>
       </c>
       <c r="Q22">
-        <v>68.01120136837643</v>
+        <v>76.84330821324576</v>
       </c>
       <c r="R22">
-        <v>68.01120136837643</v>
+        <v>691.5897739192119</v>
       </c>
       <c r="S22">
-        <v>0.02458455346715341</v>
+        <v>0.02619577187188822</v>
       </c>
       <c r="T22">
-        <v>0.02458455346715341</v>
+        <v>0.03347946495478219</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.78240345931708</v>
+        <v>7.825948666666666</v>
       </c>
       <c r="H23">
-        <v>7.78240345931708</v>
+        <v>23.477846</v>
       </c>
       <c r="I23">
-        <v>0.2167879359975286</v>
+        <v>0.2144970575164961</v>
       </c>
       <c r="J23">
-        <v>0.2167879359975286</v>
+        <v>0.2317640578636457</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.9909171972197</v>
+        <v>11.46270966666667</v>
       </c>
       <c r="N23">
-        <v>10.9909171972197</v>
+        <v>34.388129</v>
       </c>
       <c r="O23">
-        <v>0.1426246020198599</v>
+        <v>0.1425699819448656</v>
       </c>
       <c r="P23">
-        <v>0.1426246020198599</v>
+        <v>0.1686361413935869</v>
       </c>
       <c r="Q23">
-        <v>85.53575201671018</v>
+        <v>89.70657743223711</v>
       </c>
       <c r="R23">
-        <v>85.53575201671018</v>
+        <v>807.3591968901339</v>
       </c>
       <c r="S23">
-        <v>0.03091929309435438</v>
+        <v>0.03058084161735364</v>
       </c>
       <c r="T23">
-        <v>0.03091929309435438</v>
+        <v>0.03908379643184522</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.78240345931708</v>
+        <v>7.825948666666666</v>
       </c>
       <c r="H24">
-        <v>7.78240345931708</v>
+        <v>23.477846</v>
       </c>
       <c r="I24">
-        <v>0.2167879359975286</v>
+        <v>0.2144970575164961</v>
       </c>
       <c r="J24">
-        <v>0.2167879359975286</v>
+        <v>0.2317640578636457</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.66984565753858</v>
+        <v>7.370695666666666</v>
       </c>
       <c r="N24">
-        <v>6.66984565753858</v>
+        <v>22.112087</v>
       </c>
       <c r="O24">
-        <v>0.08655183779211539</v>
+        <v>0.09167465448187939</v>
       </c>
       <c r="P24">
-        <v>0.08655183779211539</v>
+        <v>0.108435589206941</v>
       </c>
       <c r="Q24">
-        <v>51.90742991833925</v>
+        <v>57.68268592495577</v>
       </c>
       <c r="R24">
-        <v>51.90742991833925</v>
+        <v>519.144173324602</v>
       </c>
       <c r="S24">
-        <v>0.01876339427174559</v>
+        <v>0.01966394363520459</v>
       </c>
       <c r="T24">
-        <v>0.01876339427174559</v>
+        <v>0.02513147217143599</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.78240345931708</v>
+        <v>7.825948666666666</v>
       </c>
       <c r="H25">
-        <v>7.78240345931708</v>
+        <v>23.477846</v>
       </c>
       <c r="I25">
-        <v>0.2167879359975286</v>
+        <v>0.2144970575164961</v>
       </c>
       <c r="J25">
-        <v>0.2167879359975286</v>
+        <v>0.2317640578636457</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>32.9553773261754</v>
+        <v>33.1404235</v>
       </c>
       <c r="N25">
-        <v>32.9553773261754</v>
+        <v>66.28084699999999</v>
       </c>
       <c r="O25">
-        <v>0.4276483473780581</v>
+        <v>0.4121913332394617</v>
       </c>
       <c r="P25">
-        <v>0.4276483473780581</v>
+        <v>0.325035022591043</v>
       </c>
       <c r="Q25">
-        <v>256.4720425063271</v>
+        <v>259.3552531025936</v>
       </c>
       <c r="R25">
-        <v>256.4720425063271</v>
+        <v>1556.131518615562</v>
       </c>
       <c r="S25">
-        <v>0.09270900256084333</v>
+        <v>0.08841382811366602</v>
       </c>
       <c r="T25">
-        <v>0.09270900256084333</v>
+        <v>0.07533143578350189</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.02549174039221</v>
+        <v>4.035661333333334</v>
       </c>
       <c r="H26">
-        <v>4.02549174039221</v>
+        <v>12.106984</v>
       </c>
       <c r="I26">
-        <v>0.1121347730603658</v>
+        <v>0.1106111882410038</v>
       </c>
       <c r="J26">
-        <v>0.1121347730603658</v>
+        <v>0.1195153823025431</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.14091293126286</v>
+        <v>4.1422325</v>
       </c>
       <c r="N26">
-        <v>4.14091293126286</v>
+        <v>8.284465000000001</v>
       </c>
       <c r="O26">
-        <v>0.05373492022755447</v>
+        <v>0.05151993114278786</v>
       </c>
       <c r="P26">
-        <v>0.05373492022755447</v>
+        <v>0.04062623503332275</v>
       </c>
       <c r="Q26">
-        <v>16.66921080248194</v>
+        <v>16.71664753392667</v>
       </c>
       <c r="R26">
-        <v>16.66921080248194</v>
+        <v>100.29988520356</v>
       </c>
       <c r="S26">
-        <v>0.006025553085133679</v>
+        <v>0.005698680801798463</v>
       </c>
       <c r="T26">
-        <v>0.006025553085133679</v>
+        <v>0.00485546001152054</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.02549174039221</v>
+        <v>4.035661333333334</v>
       </c>
       <c r="H27">
-        <v>4.02549174039221</v>
+        <v>12.106984</v>
       </c>
       <c r="I27">
-        <v>0.1121347730603658</v>
+        <v>0.1106111882410038</v>
       </c>
       <c r="J27">
-        <v>0.1121347730603658</v>
+        <v>0.1195153823025431</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>13.5657075657512</v>
+        <v>14.465481</v>
       </c>
       <c r="N27">
-        <v>13.5657075657512</v>
+        <v>43.396443</v>
       </c>
       <c r="O27">
-        <v>0.1760365953054857</v>
+        <v>0.1799176132839733</v>
       </c>
       <c r="P27">
-        <v>0.1760365953054857</v>
+        <v>0.2128120636550693</v>
       </c>
       <c r="Q27">
-        <v>54.60864375850758</v>
+        <v>58.377782339768</v>
       </c>
       <c r="R27">
-        <v>54.60864375850758</v>
+        <v>525.4000410579119</v>
       </c>
       <c r="S27">
-        <v>0.0197398236649001</v>
+        <v>0.0199009009908257</v>
       </c>
       <c r="T27">
-        <v>0.0197398236649001</v>
+        <v>0.02543431514632875</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.02549174039221</v>
+        <v>4.035661333333334</v>
       </c>
       <c r="H28">
-        <v>4.02549174039221</v>
+        <v>12.106984</v>
       </c>
       <c r="I28">
-        <v>0.1121347730603658</v>
+        <v>0.1106111882410038</v>
       </c>
       <c r="J28">
-        <v>0.1121347730603658</v>
+        <v>0.1195153823025431</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.739099909675531</v>
+        <v>9.819040666666666</v>
       </c>
       <c r="N28">
-        <v>8.739099909675531</v>
+        <v>29.457122</v>
       </c>
       <c r="O28">
-        <v>0.1134036972769263</v>
+        <v>0.1221264859070321</v>
       </c>
       <c r="P28">
-        <v>0.1134036972769263</v>
+        <v>0.144454948120037</v>
       </c>
       <c r="Q28">
-        <v>35.17917450486116</v>
+        <v>39.62632274889422</v>
       </c>
       <c r="R28">
-        <v>35.17917450486116</v>
+        <v>356.636904740048</v>
       </c>
       <c r="S28">
-        <v>0.01271649785835456</v>
+        <v>0.01350855572187503</v>
       </c>
       <c r="T28">
-        <v>0.01271649785835456</v>
+        <v>0.01726458835006026</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.02549174039221</v>
+        <v>4.035661333333334</v>
       </c>
       <c r="H29">
-        <v>4.02549174039221</v>
+        <v>12.106984</v>
       </c>
       <c r="I29">
-        <v>0.1121347730603658</v>
+        <v>0.1106111882410038</v>
       </c>
       <c r="J29">
-        <v>0.1121347730603658</v>
+        <v>0.1195153823025431</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.9909171972197</v>
+        <v>11.46270966666667</v>
       </c>
       <c r="N29">
-        <v>10.9909171972197</v>
+        <v>34.388129</v>
       </c>
       <c r="O29">
-        <v>0.1426246020198599</v>
+        <v>0.1425699819448656</v>
       </c>
       <c r="P29">
-        <v>0.1426246020198599</v>
+        <v>0.1686361413935869</v>
       </c>
       <c r="Q29">
-        <v>44.2438463967426</v>
+        <v>46.25961417699289</v>
       </c>
       <c r="R29">
-        <v>44.2438463967426</v>
+        <v>416.336527592936</v>
       </c>
       <c r="S29">
-        <v>0.01599317738032198</v>
+        <v>0.01576983511042004</v>
       </c>
       <c r="T29">
-        <v>0.01599317738032198</v>
+        <v>0.02015461290868026</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.02549174039221</v>
+        <v>4.035661333333334</v>
       </c>
       <c r="H30">
-        <v>4.02549174039221</v>
+        <v>12.106984</v>
       </c>
       <c r="I30">
-        <v>0.1121347730603658</v>
+        <v>0.1106111882410038</v>
       </c>
       <c r="J30">
-        <v>0.1121347730603658</v>
+        <v>0.1195153823025431</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.66984565753858</v>
+        <v>7.370695666666666</v>
       </c>
       <c r="N30">
-        <v>6.66984565753858</v>
+        <v>22.112087</v>
       </c>
       <c r="O30">
-        <v>0.08655183779211539</v>
+        <v>0.09167465448187939</v>
       </c>
       <c r="P30">
-        <v>0.08655183779211539</v>
+        <v>0.108435589206941</v>
       </c>
       <c r="Q30">
-        <v>26.8494086041124</v>
+        <v>29.74563150173422</v>
       </c>
       <c r="R30">
-        <v>26.8494086041124</v>
+        <v>267.710683515608</v>
       </c>
       <c r="S30">
-        <v>0.009705470688776452</v>
+        <v>0.01014024246382414</v>
       </c>
       <c r="T30">
-        <v>0.009705470688776452</v>
+        <v>0.01295972089926908</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.02549174039221</v>
+        <v>4.035661333333334</v>
       </c>
       <c r="H31">
-        <v>4.02549174039221</v>
+        <v>12.106984</v>
       </c>
       <c r="I31">
-        <v>0.1121347730603658</v>
+        <v>0.1106111882410038</v>
       </c>
       <c r="J31">
-        <v>0.1121347730603658</v>
+        <v>0.1195153823025431</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>32.9553773261754</v>
+        <v>33.1404235</v>
       </c>
       <c r="N31">
-        <v>32.9553773261754</v>
+        <v>66.28084699999999</v>
       </c>
       <c r="O31">
-        <v>0.4276483473780581</v>
+        <v>0.4121913332394617</v>
       </c>
       <c r="P31">
-        <v>0.4276483473780581</v>
+        <v>0.325035022591043</v>
       </c>
       <c r="Q31">
-        <v>132.6615992280278</v>
+        <v>133.7435256892413</v>
       </c>
       <c r="R31">
-        <v>132.6615992280278</v>
+        <v>802.4611541354479</v>
       </c>
       <c r="S31">
-        <v>0.04795425038287902</v>
+        <v>0.04559297315226043</v>
       </c>
       <c r="T31">
-        <v>0.04795425038287902</v>
+        <v>0.03884668498668425</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.46202330388979</v>
+        <v>3.491826</v>
       </c>
       <c r="H32">
-        <v>3.46202330388979</v>
+        <v>6.983651999999999</v>
       </c>
       <c r="I32">
-        <v>0.09643870179039422</v>
+        <v>0.09570550923107637</v>
       </c>
       <c r="J32">
-        <v>0.09643870179039422</v>
+        <v>0.06893986468041255</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.14091293126286</v>
+        <v>4.1422325</v>
       </c>
       <c r="N32">
-        <v>4.14091293126286</v>
+        <v>8.284465000000001</v>
       </c>
       <c r="O32">
-        <v>0.05373492022755447</v>
+        <v>0.05151993114278786</v>
       </c>
       <c r="P32">
-        <v>0.05373492022755447</v>
+        <v>0.04062623503332275</v>
       </c>
       <c r="Q32">
-        <v>14.3359370674106</v>
+        <v>14.463955141545</v>
       </c>
       <c r="R32">
-        <v>14.3359370674106</v>
+        <v>57.85582056618</v>
       </c>
       <c r="S32">
-        <v>0.005182125947555748</v>
+        <v>0.004930741245570503</v>
       </c>
       <c r="T32">
-        <v>0.005182125947555748</v>
+        <v>0.002800767145671906</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.46202330388979</v>
+        <v>3.491826</v>
       </c>
       <c r="H33">
-        <v>3.46202330388979</v>
+        <v>6.983651999999999</v>
       </c>
       <c r="I33">
-        <v>0.09643870179039422</v>
+        <v>0.09570550923107637</v>
       </c>
       <c r="J33">
-        <v>0.09643870179039422</v>
+        <v>0.06893986468041255</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>13.5657075657512</v>
+        <v>14.465481</v>
       </c>
       <c r="N33">
-        <v>13.5657075657512</v>
+        <v>43.396443</v>
       </c>
       <c r="O33">
-        <v>0.1760365953054857</v>
+        <v>0.1799176132839733</v>
       </c>
       <c r="P33">
-        <v>0.1760365953054857</v>
+        <v>0.2128120636550693</v>
       </c>
       <c r="Q33">
-        <v>46.96479572638469</v>
+        <v>50.51094265830599</v>
       </c>
       <c r="R33">
-        <v>46.96479572638469</v>
+        <v>303.065655949836</v>
       </c>
       <c r="S33">
-        <v>0.01697674071886205</v>
+        <v>0.01721910679898254</v>
       </c>
       <c r="T33">
-        <v>0.01697674071886205</v>
+        <v>0.01467123487073982</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.46202330388979</v>
+        <v>3.491826</v>
       </c>
       <c r="H34">
-        <v>3.46202330388979</v>
+        <v>6.983651999999999</v>
       </c>
       <c r="I34">
-        <v>0.09643870179039422</v>
+        <v>0.09570550923107637</v>
       </c>
       <c r="J34">
-        <v>0.09643870179039422</v>
+        <v>0.06893986468041255</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.739099909675531</v>
+        <v>9.819040666666666</v>
       </c>
       <c r="N34">
-        <v>8.739099909675531</v>
+        <v>29.457122</v>
       </c>
       <c r="O34">
-        <v>0.1134036972769263</v>
+        <v>0.1221264859070321</v>
       </c>
       <c r="P34">
-        <v>0.1134036972769263</v>
+        <v>0.144454948120037</v>
       </c>
       <c r="Q34">
-        <v>30.25496754231785</v>
+        <v>34.28638149492399</v>
       </c>
       <c r="R34">
-        <v>30.25496754231785</v>
+        <v>205.718288969544</v>
       </c>
       <c r="S34">
-        <v>0.01093650534361764</v>
+        <v>0.01168817752433438</v>
       </c>
       <c r="T34">
-        <v>0.01093650534361764</v>
+        <v>0.009958704575811364</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.46202330388979</v>
+        <v>3.491826</v>
       </c>
       <c r="H35">
-        <v>3.46202330388979</v>
+        <v>6.983651999999999</v>
       </c>
       <c r="I35">
-        <v>0.09643870179039422</v>
+        <v>0.09570550923107637</v>
       </c>
       <c r="J35">
-        <v>0.09643870179039422</v>
+        <v>0.06893986468041255</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.9909171972197</v>
+        <v>11.46270966666667</v>
       </c>
       <c r="N35">
-        <v>10.9909171972197</v>
+        <v>34.388129</v>
       </c>
       <c r="O35">
-        <v>0.1426246020198599</v>
+        <v>0.1425699819448656</v>
       </c>
       <c r="P35">
-        <v>0.1426246020198599</v>
+        <v>0.1686361413935869</v>
       </c>
       <c r="Q35">
-        <v>38.05081146789766</v>
+        <v>40.025787644518</v>
       </c>
       <c r="R35">
-        <v>38.05081146789766</v>
+        <v>240.154725867108</v>
       </c>
       <c r="S35">
-        <v>0.01375453146216693</v>
+        <v>0.01364473272309872</v>
       </c>
       <c r="T35">
-        <v>0.01375453146216693</v>
+        <v>0.0116257527679008</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.46202330388979</v>
+        <v>3.491826</v>
       </c>
       <c r="H36">
-        <v>3.46202330388979</v>
+        <v>6.983651999999999</v>
       </c>
       <c r="I36">
-        <v>0.09643870179039422</v>
+        <v>0.09570550923107637</v>
       </c>
       <c r="J36">
-        <v>0.09643870179039422</v>
+        <v>0.06893986468041255</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.66984565753858</v>
+        <v>7.370695666666666</v>
       </c>
       <c r="N36">
-        <v>6.66984565753858</v>
+        <v>22.112087</v>
       </c>
       <c r="O36">
-        <v>0.08655183779211539</v>
+        <v>0.09167465448187939</v>
       </c>
       <c r="P36">
-        <v>0.08655183779211539</v>
+        <v>0.108435589206941</v>
       </c>
       <c r="Q36">
-        <v>23.09116109974668</v>
+        <v>25.737186766954</v>
       </c>
       <c r="R36">
-        <v>23.09116109974668</v>
+        <v>154.423120601724</v>
       </c>
       <c r="S36">
-        <v>0.00834694687424439</v>
+        <v>0.008773769490771246</v>
       </c>
       <c r="T36">
-        <v>0.00834694687424439</v>
+        <v>0.007475534846467316</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.46202330388979</v>
+        <v>3.491826</v>
       </c>
       <c r="H37">
-        <v>3.46202330388979</v>
+        <v>6.983651999999999</v>
       </c>
       <c r="I37">
-        <v>0.09643870179039422</v>
+        <v>0.09570550923107637</v>
       </c>
       <c r="J37">
-        <v>0.09643870179039422</v>
+        <v>0.06893986468041255</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>32.9553773261754</v>
+        <v>33.1404235</v>
       </c>
       <c r="N37">
-        <v>32.9553773261754</v>
+        <v>66.28084699999999</v>
       </c>
       <c r="O37">
-        <v>0.4276483473780581</v>
+        <v>0.4121913332394617</v>
       </c>
       <c r="P37">
-        <v>0.4276483473780581</v>
+        <v>0.325035022591043</v>
       </c>
       <c r="Q37">
-        <v>114.0922842917004</v>
+        <v>115.720592428311</v>
       </c>
       <c r="R37">
-        <v>114.0922842917004</v>
+        <v>462.8823697132439</v>
       </c>
       <c r="S37">
-        <v>0.04124185144394747</v>
+        <v>0.03944898144831897</v>
       </c>
       <c r="T37">
-        <v>0.04124185144394747</v>
+        <v>0.02240787047382134</v>
       </c>
     </row>
   </sheetData>
